--- a/output/Lesotho_aggregated.xlsx
+++ b/output/Lesotho_aggregated.xlsx
@@ -20,19 +20,19 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN COVID-19 Response and Recovery Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN COVID-19 Response and Recovery Fund</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom, Government of</t>
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>19514</v>
+        <v>6063308</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2121418</v>
+        <v>3049997</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3049997</v>
+        <v>893000</v>
       </c>
     </row>
     <row r="5">
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>6063308</v>
+        <v>2121418</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>893000</v>
+        <v>19514</v>
       </c>
     </row>
     <row r="7">
